--- a/temp/pages/observations-summary.xlsx
+++ b/temp/pages/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>lrc-onco-panel-result</t>
-  </si>
-  <si>
-    <t>Lrc Hospital-Community Oncology Related Panel Lab Test Result</t>
+    <t>lrc-result</t>
+  </si>
+  <si>
+    <t>Lrc Test Result</t>
   </si>
   <si>
     <t>null#laboratory</t>
@@ -59,55 +59,37 @@
     <t/>
   </si>
   <si>
+    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-result-codes (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>string, Quantity, CodeableConcept</t>
+  </si>
+  <si>
+    <t>SNOMED CT#117444000</t>
+  </si>
+  <si>
+    <t>CodeableConcept, Quantity</t>
+  </si>
+  <si>
+    <t>SNOMED CT#117362005</t>
+  </si>
+  <si>
+    <t>lrc-panel-result</t>
+  </si>
+  <si>
+    <t>Lrc Panel Lab Test Result</t>
+  </si>
+  <si>
     <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-onco-panel-result-codes (required)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>lrc-result</t>
-  </si>
-  <si>
-    <t>Lrc Test Result</t>
-  </si>
-  <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-result-codes (extensible)</t>
-  </si>
-  <si>
-    <t>string, Quantity, CodeableConcept</t>
-  </si>
-  <si>
-    <t>SNOMED CT#117444000</t>
-  </si>
-  <si>
-    <t>CodeableConcept, Quantity</t>
-  </si>
-  <si>
-    <t>SNOMED CT#117362005</t>
-  </si>
-  <si>
-    <t>lrc-panel-result</t>
-  </si>
-  <si>
-    <t>Lrc Panel Lab Test Result</t>
-  </si>
-  <si>
-    <t>lrc-hospital-community-onco-lab-result</t>
-  </si>
-  <si>
-    <t>Lrc Hospital Community Onco Lab Result</t>
-  </si>
-  <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-onco-result-codes (extensible)</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConcept</t>
   </si>
 </sst>
 </file>
@@ -241,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -319,28 +301,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -349,7 +331,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -357,7 +339,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>14</v>
@@ -375,7 +357,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -384,18 +366,18 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
@@ -404,13 +386,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -419,147 +401,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/temp/pages/observations-summary.xlsx
+++ b/temp/pages/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-result-codes (extensible)</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-result-codes (extensible)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -89,7 +89,7 @@
     <t>Lrc Panel Lab Test Result</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-onco-panel-result-codes (required)</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-onco-panel-result-codes (required)</t>
   </si>
 </sst>
 </file>
